--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf1-Fgfr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf1-Fgfr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5247423333333333</v>
+        <v>1.803092333333333</v>
       </c>
       <c r="H2">
-        <v>1.574227</v>
+        <v>5.409276999999999</v>
       </c>
       <c r="I2">
-        <v>0.044891155074209</v>
+        <v>0.1744886524959502</v>
       </c>
       <c r="J2">
-        <v>0.044891155074209</v>
+        <v>0.1744886524959502</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.033285</v>
+        <v>0.7144740000000001</v>
       </c>
       <c r="N2">
-        <v>0.099855</v>
+        <v>2.143422</v>
       </c>
       <c r="O2">
-        <v>0.007684499559038781</v>
+        <v>0.138796410342318</v>
       </c>
       <c r="P2">
-        <v>0.007684499559038781</v>
+        <v>0.138796410342318</v>
       </c>
       <c r="Q2">
-        <v>0.017466048565</v>
+        <v>1.288262591766</v>
       </c>
       <c r="R2">
-        <v>0.157194437085</v>
+        <v>11.594363325894</v>
       </c>
       <c r="S2">
-        <v>0.0003449660613725006</v>
+        <v>0.02421839861190604</v>
       </c>
       <c r="T2">
-        <v>0.0003449660613725006</v>
+        <v>0.02421839861190604</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5247423333333333</v>
+        <v>1.803092333333333</v>
       </c>
       <c r="H3">
-        <v>1.574227</v>
+        <v>5.409276999999999</v>
       </c>
       <c r="I3">
-        <v>0.044891155074209</v>
+        <v>0.1744886524959502</v>
       </c>
       <c r="J3">
-        <v>0.044891155074209</v>
+        <v>0.1744886524959502</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>12.422619</v>
       </c>
       <c r="O3">
-        <v>0.9560023056192156</v>
+        <v>0.8044215857867821</v>
       </c>
       <c r="P3">
-        <v>0.9560023056192157</v>
+        <v>0.8044215857867821</v>
       </c>
       <c r="Q3">
-        <v>2.172891360057</v>
+        <v>7.466376359606999</v>
       </c>
       <c r="R3">
-        <v>19.556022240513</v>
+        <v>67.197387236463</v>
       </c>
       <c r="S3">
-        <v>0.04291604775285356</v>
+        <v>0.1403624385425911</v>
       </c>
       <c r="T3">
-        <v>0.04291604775285356</v>
+        <v>0.140362438542591</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5247423333333333</v>
+        <v>1.803092333333333</v>
       </c>
       <c r="H4">
-        <v>1.574227</v>
+        <v>5.409276999999999</v>
       </c>
       <c r="I4">
-        <v>0.044891155074209</v>
+        <v>0.1744886524959502</v>
       </c>
       <c r="J4">
-        <v>0.044891155074209</v>
+        <v>0.1744886524959502</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1572886666666667</v>
+        <v>0.2847646666666667</v>
       </c>
       <c r="N4">
-        <v>0.471866</v>
+        <v>0.8542940000000001</v>
       </c>
       <c r="O4">
-        <v>0.03631319482174546</v>
+        <v>0.05531945672713084</v>
       </c>
       <c r="P4">
-        <v>0.03631319482174546</v>
+        <v>0.05531945672713083</v>
       </c>
       <c r="Q4">
-        <v>0.08253602195355556</v>
+        <v>0.513456987270889</v>
       </c>
       <c r="R4">
-        <v>0.742824197582</v>
+        <v>4.621112885438</v>
       </c>
       <c r="S4">
-        <v>0.001630141259982939</v>
+        <v>0.009652617461125092</v>
       </c>
       <c r="T4">
-        <v>0.001630141259982939</v>
+        <v>0.009652617461125087</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.531154666666667</v>
+        <v>1.803092333333333</v>
       </c>
       <c r="H5">
-        <v>13.593464</v>
+        <v>5.409276999999999</v>
       </c>
       <c r="I5">
-        <v>0.3876355191593572</v>
+        <v>0.1744886524959502</v>
       </c>
       <c r="J5">
-        <v>0.3876355191593572</v>
+        <v>0.1744886524959502</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.033285</v>
+        <v>0.007528666666666667</v>
       </c>
       <c r="N5">
-        <v>0.099855</v>
+        <v>0.022586</v>
       </c>
       <c r="O5">
-        <v>0.007684499559038781</v>
+        <v>0.00146254714376898</v>
       </c>
       <c r="P5">
-        <v>0.007684499559038781</v>
+        <v>0.00146254714376898</v>
       </c>
       <c r="Q5">
-        <v>0.15081948308</v>
+        <v>0.01357488114688889</v>
       </c>
       <c r="R5">
-        <v>1.35737534772</v>
+        <v>0.122173930322</v>
       </c>
       <c r="S5">
-        <v>0.002978784976047849</v>
+        <v>0.0002551978803280501</v>
       </c>
       <c r="T5">
-        <v>0.002978784976047849</v>
+        <v>0.0002551978803280501</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,10 +791,10 @@
         <v>13.593464</v>
       </c>
       <c r="I6">
-        <v>0.3876355191593572</v>
+        <v>0.4384883998568034</v>
       </c>
       <c r="J6">
-        <v>0.3876355191593572</v>
+        <v>0.4384883998568034</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.140873</v>
+        <v>0.7144740000000001</v>
       </c>
       <c r="N6">
-        <v>12.422619</v>
+        <v>2.143422</v>
       </c>
       <c r="O6">
-        <v>0.9560023056192156</v>
+        <v>0.138796410342318</v>
       </c>
       <c r="P6">
-        <v>0.9560023056192157</v>
+        <v>0.138796410342318</v>
       </c>
       <c r="Q6">
-        <v>18.762936018024</v>
+        <v>3.237392199312</v>
       </c>
       <c r="R6">
-        <v>168.866424162216</v>
+        <v>29.136529793808</v>
       </c>
       <c r="S6">
-        <v>0.3705804500562471</v>
+        <v>0.06086061587687131</v>
       </c>
       <c r="T6">
-        <v>0.3705804500562472</v>
+        <v>0.0608606158768713</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,10 +853,10 @@
         <v>13.593464</v>
       </c>
       <c r="I7">
-        <v>0.3876355191593572</v>
+        <v>0.4384883998568034</v>
       </c>
       <c r="J7">
-        <v>0.3876355191593572</v>
+        <v>0.4384883998568034</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1572886666666667</v>
+        <v>4.140873</v>
       </c>
       <c r="N7">
-        <v>0.471866</v>
+        <v>12.422619</v>
       </c>
       <c r="O7">
-        <v>0.03631319482174546</v>
+        <v>0.8044215857867821</v>
       </c>
       <c r="P7">
-        <v>0.03631319482174546</v>
+        <v>0.8044215857867821</v>
       </c>
       <c r="Q7">
-        <v>0.7126992759804445</v>
+        <v>18.762936018024</v>
       </c>
       <c r="R7">
-        <v>6.414293483824</v>
+        <v>168.866424162216</v>
       </c>
       <c r="S7">
-        <v>0.01407628412706219</v>
+        <v>0.3527295339619184</v>
       </c>
       <c r="T7">
-        <v>0.01407628412706219</v>
+        <v>0.3527295339619184</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,51 +909,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.553315000000001</v>
+        <v>4.531154666666667</v>
       </c>
       <c r="H8">
-        <v>19.659945</v>
+        <v>13.593464</v>
       </c>
       <c r="I8">
-        <v>0.5606292102380535</v>
+        <v>0.4384883998568034</v>
       </c>
       <c r="J8">
-        <v>0.5606292102380535</v>
+        <v>0.4384883998568034</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.033285</v>
+        <v>0.2847646666666667</v>
       </c>
       <c r="N8">
-        <v>0.099855</v>
+        <v>0.8542940000000001</v>
       </c>
       <c r="O8">
-        <v>0.007684499559038781</v>
+        <v>0.05531945672713084</v>
       </c>
       <c r="P8">
-        <v>0.007684499559038781</v>
+        <v>0.05531945672713083</v>
       </c>
       <c r="Q8">
-        <v>0.2181270897750001</v>
+        <v>1.290312748268445</v>
       </c>
       <c r="R8">
-        <v>1.963143807975</v>
+        <v>11.612814734416</v>
       </c>
       <c r="S8">
-        <v>0.004308154918858582</v>
+        <v>0.02425694006122728</v>
       </c>
       <c r="T8">
-        <v>0.004308154918858582</v>
+        <v>0.02425694006122727</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.553315000000001</v>
+        <v>4.531154666666667</v>
       </c>
       <c r="H9">
-        <v>19.659945</v>
+        <v>13.593464</v>
       </c>
       <c r="I9">
-        <v>0.5606292102380535</v>
+        <v>0.4384883998568034</v>
       </c>
       <c r="J9">
-        <v>0.5606292102380535</v>
+        <v>0.4384883998568034</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>4.140873</v>
+        <v>0.007528666666666667</v>
       </c>
       <c r="N9">
-        <v>12.422619</v>
+        <v>0.022586</v>
       </c>
       <c r="O9">
-        <v>0.9560023056192156</v>
+        <v>0.00146254714376898</v>
       </c>
       <c r="P9">
-        <v>0.9560023056192157</v>
+        <v>0.00146254714376898</v>
       </c>
       <c r="Q9">
-        <v>27.136445143995</v>
+        <v>0.03411355310044445</v>
       </c>
       <c r="R9">
-        <v>244.2280062959551</v>
+        <v>0.307021977904</v>
       </c>
       <c r="S9">
-        <v>0.535962817585059</v>
+        <v>0.0006413099567863983</v>
       </c>
       <c r="T9">
-        <v>0.5359628175850591</v>
+        <v>0.0006413099567863981</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.553315000000001</v>
+        <v>3.895605666666667</v>
       </c>
       <c r="H10">
-        <v>19.659945</v>
+        <v>11.686817</v>
       </c>
       <c r="I10">
-        <v>0.5606292102380535</v>
+        <v>0.3769851220961256</v>
       </c>
       <c r="J10">
-        <v>0.5606292102380535</v>
+        <v>0.3769851220961256</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,33 +1051,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1572886666666667</v>
+        <v>0.7144740000000001</v>
       </c>
       <c r="N10">
-        <v>0.471866</v>
+        <v>2.143422</v>
       </c>
       <c r="O10">
-        <v>0.03631319482174546</v>
+        <v>0.138796410342318</v>
       </c>
       <c r="P10">
-        <v>0.03631319482174546</v>
+        <v>0.138796410342318</v>
       </c>
       <c r="Q10">
-        <v>1.030762178596667</v>
+        <v>2.783308963086001</v>
       </c>
       <c r="R10">
-        <v>9.276859607370001</v>
+        <v>25.04978066777401</v>
       </c>
       <c r="S10">
-        <v>0.02035823773413573</v>
+        <v>0.05232418169940271</v>
       </c>
       <c r="T10">
-        <v>0.02035823773413573</v>
+        <v>0.05232418169940271</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.08000233333333334</v>
+        <v>3.895605666666667</v>
       </c>
       <c r="H11">
-        <v>0.240007</v>
+        <v>11.686817</v>
       </c>
       <c r="I11">
-        <v>0.006844115528380394</v>
+        <v>0.3769851220961256</v>
       </c>
       <c r="J11">
-        <v>0.006844115528380393</v>
+        <v>0.3769851220961256</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.033285</v>
+        <v>4.140873</v>
       </c>
       <c r="N11">
-        <v>0.099855</v>
+        <v>12.422619</v>
       </c>
       <c r="O11">
-        <v>0.007684499559038781</v>
+        <v>0.8044215857867821</v>
       </c>
       <c r="P11">
-        <v>0.007684499559038781</v>
+        <v>0.8044215857867821</v>
       </c>
       <c r="Q11">
-        <v>0.002662877665000001</v>
+        <v>16.131208323747</v>
       </c>
       <c r="R11">
-        <v>0.023965898985</v>
+        <v>145.180874913723</v>
       </c>
       <c r="S11">
-        <v>5.25936027598496E-05</v>
+        <v>0.303254969734589</v>
       </c>
       <c r="T11">
-        <v>5.25936027598496E-05</v>
+        <v>0.303254969734589</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,25 +1148,25 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.08000233333333334</v>
+        <v>3.895605666666667</v>
       </c>
       <c r="H12">
-        <v>0.240007</v>
+        <v>11.686817</v>
       </c>
       <c r="I12">
-        <v>0.006844115528380394</v>
+        <v>0.3769851220961256</v>
       </c>
       <c r="J12">
-        <v>0.006844115528380393</v>
+        <v>0.3769851220961256</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,33 +1175,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.140873</v>
+        <v>0.2847646666666667</v>
       </c>
       <c r="N12">
-        <v>12.422619</v>
+        <v>0.8542940000000001</v>
       </c>
       <c r="O12">
-        <v>0.9560023056192156</v>
+        <v>0.05531945672713084</v>
       </c>
       <c r="P12">
-        <v>0.9560023056192157</v>
+        <v>0.05531945672713083</v>
       </c>
       <c r="Q12">
-        <v>0.331279502037</v>
+        <v>1.109330849133111</v>
       </c>
       <c r="R12">
-        <v>2.981515518333</v>
+        <v>9.983977642198003</v>
       </c>
       <c r="S12">
-        <v>0.006542990225055932</v>
+        <v>0.02085461214856876</v>
       </c>
       <c r="T12">
-        <v>0.006542990225055932</v>
+        <v>0.02085461214856875</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1210,55 +1210,303 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>3.895605666666667</v>
+      </c>
+      <c r="H13">
+        <v>11.686817</v>
+      </c>
+      <c r="I13">
+        <v>0.3769851220961256</v>
+      </c>
+      <c r="J13">
+        <v>0.3769851220961256</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.007528666666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.022586</v>
+      </c>
+      <c r="O13">
+        <v>0.00146254714376898</v>
+      </c>
+      <c r="P13">
+        <v>0.00146254714376898</v>
+      </c>
+      <c r="Q13">
+        <v>0.02932871652911111</v>
+      </c>
+      <c r="R13">
+        <v>0.263958448762</v>
+      </c>
+      <c r="S13">
+        <v>0.0005513585135650887</v>
+      </c>
+      <c r="T13">
+        <v>0.0005513585135650886</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.1037266666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.31118</v>
+      </c>
+      <c r="I14">
+        <v>0.01003782555112075</v>
+      </c>
+      <c r="J14">
+        <v>0.01003782555112075</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.7144740000000001</v>
+      </c>
+      <c r="N14">
+        <v>2.143422</v>
+      </c>
+      <c r="O14">
+        <v>0.138796410342318</v>
+      </c>
+      <c r="P14">
+        <v>0.138796410342318</v>
+      </c>
+      <c r="Q14">
+        <v>0.07411000644000001</v>
+      </c>
+      <c r="R14">
+        <v>0.6669900579600001</v>
+      </c>
+      <c r="S14">
+        <v>0.00139321415413796</v>
+      </c>
+      <c r="T14">
+        <v>0.00139321415413796</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.1037266666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.31118</v>
+      </c>
+      <c r="I15">
+        <v>0.01003782555112075</v>
+      </c>
+      <c r="J15">
+        <v>0.01003782555112075</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>4.140873</v>
+      </c>
+      <c r="N15">
+        <v>12.422619</v>
+      </c>
+      <c r="O15">
+        <v>0.8044215857867821</v>
+      </c>
+      <c r="P15">
+        <v>0.8044215857867821</v>
+      </c>
+      <c r="Q15">
+        <v>0.42951895338</v>
+      </c>
+      <c r="R15">
+        <v>3.865670580420001</v>
+      </c>
+      <c r="S15">
+        <v>0.008074643547683636</v>
+      </c>
+      <c r="T15">
+        <v>0.008074643547683634</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G13">
-        <v>0.08000233333333334</v>
-      </c>
-      <c r="H13">
-        <v>0.240007</v>
-      </c>
-      <c r="I13">
-        <v>0.006844115528380394</v>
-      </c>
-      <c r="J13">
-        <v>0.006844115528380393</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.1572886666666667</v>
-      </c>
-      <c r="N13">
-        <v>0.471866</v>
-      </c>
-      <c r="O13">
-        <v>0.03631319482174546</v>
-      </c>
-      <c r="P13">
-        <v>0.03631319482174546</v>
-      </c>
-      <c r="Q13">
-        <v>0.01258346034022222</v>
-      </c>
-      <c r="R13">
-        <v>0.113251143062</v>
-      </c>
-      <c r="S13">
-        <v>0.0002485317005646106</v>
-      </c>
-      <c r="T13">
-        <v>0.0002485317005646106</v>
+      <c r="G16">
+        <v>0.1037266666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.31118</v>
+      </c>
+      <c r="I16">
+        <v>0.01003782555112075</v>
+      </c>
+      <c r="J16">
+        <v>0.01003782555112075</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.2847646666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.8542940000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.05531945672713084</v>
+      </c>
+      <c r="P16">
+        <v>0.05531945672713083</v>
+      </c>
+      <c r="Q16">
+        <v>0.02953768965777779</v>
+      </c>
+      <c r="R16">
+        <v>0.2658392069200001</v>
+      </c>
+      <c r="S16">
+        <v>0.0005552870562097128</v>
+      </c>
+      <c r="T16">
+        <v>0.0005552870562097125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.1037266666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.31118</v>
+      </c>
+      <c r="I17">
+        <v>0.01003782555112075</v>
+      </c>
+      <c r="J17">
+        <v>0.01003782555112075</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.007528666666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.022586</v>
+      </c>
+      <c r="O17">
+        <v>0.00146254714376898</v>
+      </c>
+      <c r="P17">
+        <v>0.00146254714376898</v>
+      </c>
+      <c r="Q17">
+        <v>0.0007809234977777779</v>
+      </c>
+      <c r="R17">
+        <v>0.00702831148</v>
+      </c>
+      <c r="S17">
+        <v>1.468079308944294E-05</v>
+      </c>
+      <c r="T17">
+        <v>1.468079308944294E-05</v>
       </c>
     </row>
   </sheetData>
